--- a/All.xlsx
+++ b/All.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12345" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="24345" windowHeight="12615" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="打卡（未完善）" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="落花成员资料" sheetId="3" r:id="rId3"/>
     <sheet name="月见成员资料" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="620">
   <si>
     <t>日期</t>
   </si>
@@ -624,18 +624,30 @@
     <t>机密表</t>
   </si>
   <si>
+    <t>info</t>
+  </si>
+  <si>
     <t>QQ</t>
   </si>
   <si>
+    <t>nickname</t>
+  </si>
+  <si>
     <t>次数</t>
   </si>
   <si>
+    <t>单次</t>
+  </si>
+  <si>
     <t>打卡时间</t>
   </si>
   <si>
     <t>备注</t>
   </si>
   <si>
+    <t>人工校验</t>
+  </si>
+  <si>
     <t>1727255881</t>
   </si>
   <si>
@@ -645,400 +657,781 @@
     <t>957708332</t>
   </si>
   <si>
+    <t>落花der顾榆妍（糖）</t>
+  </si>
+  <si>
+    <t>1w</t>
+  </si>
+  <si>
+    <t>9:14:01</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>10w</t>
+  </si>
+  <si>
+    <t>8:34:12</t>
+  </si>
+  <si>
+    <t>769521738</t>
+  </si>
+  <si>
+    <t>落花-白茶</t>
+  </si>
+  <si>
+    <t>4w5</t>
+  </si>
+  <si>
+    <t>10:48:28</t>
+  </si>
+  <si>
+    <t>14:14:42</t>
+  </si>
+  <si>
+    <t>3200441406</t>
+  </si>
+  <si>
+    <t>落花_草莓有点</t>
+  </si>
+  <si>
+    <t>3085795283</t>
+  </si>
+  <si>
+    <t>落花"桃之夭夭</t>
+  </si>
+  <si>
+    <t>23:18:54</t>
+  </si>
+  <si>
+    <t>0:35:57</t>
+  </si>
+  <si>
+    <t>648875355</t>
+  </si>
+  <si>
+    <t>落花—陆阮阮</t>
+  </si>
+  <si>
+    <t>7W</t>
+  </si>
+  <si>
+    <t>14:39:17</t>
+  </si>
+  <si>
+    <t>7W8</t>
+  </si>
+  <si>
+    <t>15:51:52</t>
+  </si>
+  <si>
+    <t>724187504</t>
+  </si>
+  <si>
+    <t>落花⭐Rai</t>
+  </si>
+  <si>
+    <t>20:38:08</t>
+  </si>
+  <si>
+    <t>21:53:14</t>
+  </si>
+  <si>
+    <t>793019511</t>
+  </si>
+  <si>
+    <t>落花ฅ稷晞</t>
+  </si>
+  <si>
+    <t>9w5</t>
+  </si>
+  <si>
+    <t>12:13:48</t>
+  </si>
+  <si>
+    <t>9w9</t>
+  </si>
+  <si>
+    <t>14:00:53</t>
+  </si>
+  <si>
+    <t>2473375876</t>
+  </si>
+  <si>
+    <t>落花林咕啾</t>
+  </si>
+  <si>
+    <t>十</t>
+  </si>
+  <si>
+    <t>2w9</t>
+  </si>
+  <si>
+    <t>13:18:44</t>
+  </si>
+  <si>
+    <t>10:17:55</t>
+  </si>
+  <si>
+    <t>3w6</t>
+  </si>
+  <si>
+    <t>12:38:10</t>
+  </si>
+  <si>
+    <t>3w8</t>
+  </si>
+  <si>
+    <t>9:22:47</t>
+  </si>
+  <si>
+    <t>30137763</t>
+  </si>
+  <si>
+    <t>落花-樱茶</t>
+  </si>
+  <si>
+    <t>15451377</t>
+  </si>
+  <si>
+    <t>落花·紫</t>
+  </si>
+  <si>
+    <t>12:30:40</t>
+  </si>
+  <si>
+    <t>8w8</t>
+  </si>
+  <si>
+    <t>12:44:50</t>
+  </si>
+  <si>
+    <t>779867533</t>
+  </si>
+  <si>
+    <t>落花๑顾安白</t>
+  </si>
+  <si>
+    <t>7w7</t>
+  </si>
+  <si>
+    <t>9:57:01</t>
+  </si>
+  <si>
+    <t>799908427</t>
+  </si>
+  <si>
+    <t>落花-小枫</t>
+  </si>
+  <si>
+    <t>3240236818</t>
+  </si>
+  <si>
+    <t>落花 秦意</t>
+  </si>
+  <si>
+    <t>8:44:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15</t>
+  </si>
+  <si>
+    <t>7:41:40</t>
+  </si>
+  <si>
+    <t>823284435</t>
+  </si>
+  <si>
+    <t>落花—鸭小梨</t>
+  </si>
+  <si>
+    <t>8:06:58</t>
+  </si>
+  <si>
+    <t>8:26:47</t>
+  </si>
+  <si>
+    <t>2169226881</t>
+  </si>
+  <si>
+    <t>落花.薇尔莉特</t>
+  </si>
+  <si>
+    <t>13:09:02</t>
+  </si>
+  <si>
+    <t>15:09:16</t>
+  </si>
+  <si>
+    <t>20:08:23</t>
+  </si>
+  <si>
+    <t>4w</t>
+  </si>
+  <si>
+    <t>12:34:32</t>
+  </si>
+  <si>
+    <t>1239530393</t>
+  </si>
+  <si>
+    <t>落花" 苏久久</t>
+  </si>
+  <si>
+    <t>17:02:37</t>
+  </si>
+  <si>
+    <t>1841469477</t>
+  </si>
+  <si>
+    <t>天淼—落花</t>
+  </si>
+  <si>
+    <t>四万七</t>
+  </si>
+  <si>
+    <t>19:57:34</t>
+  </si>
+  <si>
+    <t>19:34:32</t>
+  </si>
+  <si>
+    <t>19:43:25</t>
+  </si>
+  <si>
+    <t>348280606</t>
+  </si>
+  <si>
+    <t>落花 白寄岚洛</t>
+  </si>
+  <si>
+    <t>9w4</t>
+  </si>
+  <si>
+    <t>9:24:38</t>
+  </si>
+  <si>
+    <t>9w6</t>
+  </si>
+  <si>
+    <t>12:47:34</t>
+  </si>
+  <si>
+    <t>1941489960</t>
+  </si>
+  <si>
+    <t>落花 早纪畈枝</t>
+  </si>
+  <si>
+    <t>15:02:19</t>
+  </si>
+  <si>
+    <t>18:28:05</t>
+  </si>
+  <si>
+    <t>745415648</t>
+  </si>
+  <si>
+    <t>落花 小虚</t>
+  </si>
+  <si>
+    <t>12:39:01</t>
+  </si>
+  <si>
+    <t>1025385659</t>
+  </si>
+  <si>
+    <t>落花 柚歆</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10</t>
+  </si>
+  <si>
+    <t>4w7</t>
+  </si>
+  <si>
+    <t>13:46:31</t>
+  </si>
+  <si>
+    <t>5w5</t>
+  </si>
+  <si>
+    <t>12:32:55</t>
+  </si>
+  <si>
+    <t>992526373</t>
+  </si>
+  <si>
+    <t>落花 slily</t>
+  </si>
+  <si>
+    <t>19:04:20</t>
+  </si>
+  <si>
+    <t>13:18:19</t>
+  </si>
+  <si>
+    <t>205678875</t>
+  </si>
+  <si>
+    <t>落花  轻语</t>
+  </si>
+  <si>
+    <t>923418164</t>
+  </si>
+  <si>
+    <t>落花 千早</t>
+  </si>
+  <si>
+    <t>18:01:30</t>
+  </si>
+  <si>
+    <t>8w5</t>
+  </si>
+  <si>
+    <t>20:51:54</t>
+  </si>
+  <si>
+    <t>12:25:41</t>
+  </si>
+  <si>
+    <t>714548844</t>
+  </si>
+  <si>
+    <t>落花 爸爸</t>
+  </si>
+  <si>
+    <t>2173295938</t>
+  </si>
+  <si>
+    <t>落花 清酒卿</t>
+  </si>
+  <si>
+    <t>363193357</t>
+  </si>
+  <si>
+    <t>落花 花浔</t>
+  </si>
+  <si>
+    <t>8w1</t>
+  </si>
+  <si>
+    <t>19:45:34</t>
+  </si>
+  <si>
+    <t>9:29:20</t>
+  </si>
+  <si>
+    <t>1937237519</t>
+  </si>
+  <si>
+    <t>落花 桃花换酒</t>
+  </si>
+  <si>
+    <t>535509797</t>
+  </si>
+  <si>
+    <t>落花，灰姐</t>
+  </si>
+  <si>
+    <t>6.8w</t>
+  </si>
+  <si>
+    <t>18:23:33</t>
+  </si>
+  <si>
+    <t>1040250547</t>
+  </si>
+  <si>
+    <t>落花ʚ阿喵王子</t>
+  </si>
+  <si>
+    <t>3w1</t>
+  </si>
+  <si>
+    <t>13:34:44</t>
+  </si>
+  <si>
+    <t>651570472</t>
+  </si>
+  <si>
+    <t>落花 EXO</t>
+  </si>
+  <si>
+    <t>11:34:32</t>
+  </si>
+  <si>
+    <t>10:26:57</t>
+  </si>
+  <si>
+    <t>879583569</t>
+  </si>
+  <si>
+    <t>落花 无尤</t>
+  </si>
+  <si>
+    <t>1369562367</t>
+  </si>
+  <si>
+    <t>落花ω天天</t>
+  </si>
+  <si>
+    <t>3w</t>
+  </si>
+  <si>
+    <t>19:11:25</t>
+  </si>
+  <si>
+    <t>19:12:12</t>
+  </si>
+  <si>
+    <t>2940604709</t>
+  </si>
+  <si>
+    <t>落花-24k草莓小</t>
+  </si>
+  <si>
+    <t>1941389796</t>
+  </si>
+  <si>
+    <t>落花 川奈</t>
+  </si>
+  <si>
+    <t>8:18:51</t>
+  </si>
+  <si>
+    <t>39302003</t>
+  </si>
+  <si>
+    <t>落花 神仙</t>
+  </si>
+  <si>
+    <t>3476601463</t>
+  </si>
+  <si>
+    <t>落花 阿幼</t>
+  </si>
+  <si>
+    <t>1:24:20</t>
+  </si>
+  <si>
+    <t>1664171803</t>
+  </si>
+  <si>
+    <t>落花 总攻大人</t>
+  </si>
+  <si>
+    <t>12:18:50</t>
+  </si>
+  <si>
+    <t>2406417774</t>
+  </si>
+  <si>
+    <t>落花 苏其凉</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3w3</t>
+  </si>
+  <si>
+    <t>1:48:03</t>
+  </si>
+  <si>
+    <t>1056711058</t>
+  </si>
+  <si>
+    <t>落花：翎羽</t>
+  </si>
+  <si>
+    <t>1130056290</t>
+  </si>
+  <si>
+    <t>落花～辉光叶</t>
+  </si>
+  <si>
+    <t>4万4</t>
+  </si>
+  <si>
+    <t>17:55:18</t>
+  </si>
+  <si>
+    <t>4万5</t>
+  </si>
+  <si>
+    <t>17:39:56</t>
+  </si>
+  <si>
+    <t>4万8</t>
+  </si>
+  <si>
+    <t>12:51:30</t>
+  </si>
+  <si>
+    <t>2661759612</t>
+  </si>
+  <si>
+    <t>落花 路希</t>
+  </si>
+  <si>
+    <t>1061935分</t>
+  </si>
+  <si>
+    <t>10:53:25</t>
+  </si>
+  <si>
+    <t>121398489</t>
+  </si>
+  <si>
+    <t>落花_鸭鸭</t>
+  </si>
+  <si>
+    <t>11:45:33</t>
+  </si>
+  <si>
+    <t>710237833</t>
+  </si>
+  <si>
+    <t>落花 可露丽</t>
+  </si>
+  <si>
+    <t>17:07:57</t>
+  </si>
+  <si>
+    <t>19:40:45</t>
+  </si>
+  <si>
+    <t>729008532</t>
+  </si>
+  <si>
+    <t>落花~ 春风十里</t>
+  </si>
+  <si>
+    <t>1369593175</t>
+  </si>
+  <si>
+    <t>落花～～心城</t>
+  </si>
+  <si>
+    <t>7:43:52</t>
+  </si>
+  <si>
+    <t>924110951</t>
+  </si>
+  <si>
+    <t>落花@楚锦妮</t>
+  </si>
+  <si>
+    <t>781898849</t>
+  </si>
+  <si>
+    <t>落花-KGAoi</t>
+  </si>
+  <si>
+    <t>784945709</t>
+  </si>
+  <si>
+    <t>落花-花祭夜</t>
+  </si>
+  <si>
+    <t>13:50:38</t>
+  </si>
+  <si>
+    <t>12:54:08</t>
+  </si>
+  <si>
+    <t>727791466</t>
+  </si>
+  <si>
+    <t>落花+天辟</t>
+  </si>
+  <si>
+    <t>22:40:58</t>
+  </si>
+  <si>
+    <t>10w5</t>
+  </si>
+  <si>
+    <t>20:36:34</t>
+  </si>
+  <si>
+    <t>1393363961</t>
+  </si>
+  <si>
+    <t>落花 红茶喵喵</t>
+  </si>
+  <si>
+    <t>1472517975</t>
+  </si>
+  <si>
+    <t>落花~HAMEL</t>
+  </si>
+  <si>
+    <t>15:09:41</t>
+  </si>
+  <si>
+    <t>8:36:53</t>
+  </si>
+  <si>
+    <t>7w2</t>
+  </si>
+  <si>
+    <t>9:09:03</t>
+  </si>
+  <si>
+    <t>505644622</t>
+  </si>
+  <si>
+    <t>落花◈啾啾</t>
+  </si>
+  <si>
+    <t>15:37:14</t>
+  </si>
+  <si>
+    <t>19:27:40</t>
+  </si>
+  <si>
+    <t>1327354755</t>
+  </si>
+  <si>
+    <t>落花 清水奈绪</t>
+  </si>
+  <si>
+    <t>12:27:25</t>
+  </si>
+  <si>
+    <t>1755065148</t>
+  </si>
+  <si>
+    <t>落花  赖皮蛇</t>
+  </si>
+  <si>
+    <t>4.7w</t>
+  </si>
+  <si>
+    <t>10:59:15</t>
+  </si>
+  <si>
+    <t>11:40:07</t>
+  </si>
+  <si>
+    <t>528508085</t>
+  </si>
+  <si>
+    <t>落花]_[王寒羽</t>
+  </si>
+  <si>
+    <t>2605384970</t>
+  </si>
+  <si>
+    <t>落花-清茶</t>
+  </si>
+  <si>
+    <t>974687361</t>
+  </si>
+  <si>
+    <t>落花-清水</t>
+  </si>
+  <si>
+    <t>四万五</t>
+  </si>
+  <si>
+    <t>14:08:36</t>
+  </si>
+  <si>
+    <t>16:43:50</t>
+  </si>
+  <si>
+    <t>19:44:56</t>
+  </si>
+  <si>
+    <t>1223871051</t>
+  </si>
+  <si>
+    <t>落花，初</t>
+  </si>
+  <si>
+    <t>6.5w</t>
+  </si>
+  <si>
+    <t>7:38:19</t>
+  </si>
+  <si>
+    <t>10:21:46</t>
+  </si>
+  <si>
+    <t>1543607287</t>
+  </si>
+  <si>
+    <t>落花๑兰摧玉折</t>
+  </si>
+  <si>
+    <t>821515617</t>
+  </si>
+  <si>
+    <t>落花-谢南</t>
+  </si>
+  <si>
+    <t>4w9</t>
+  </si>
+  <si>
+    <t>13:56:04</t>
+  </si>
+  <si>
+    <t>10:25:54</t>
+  </si>
+  <si>
+    <t>2971057903</t>
+  </si>
+  <si>
+    <t>落花-细语</t>
+  </si>
+  <si>
+    <t>371212327</t>
+  </si>
+  <si>
+    <t>落花@冷月小猫</t>
+  </si>
+  <si>
+    <t>2192665938</t>
+  </si>
+  <si>
+    <t>落花 奶味汐月</t>
+  </si>
+  <si>
+    <t>2638588219</t>
+  </si>
+  <si>
+    <t>落花–洱瓷</t>
+  </si>
+  <si>
+    <t>19:02:13</t>
+  </si>
+  <si>
+    <t>落花鸣鹿</t>
+  </si>
+  <si>
+    <t>happy.my.love@qq.com</t>
+  </si>
+  <si>
+    <t>落花@冷月小猫泪</t>
+  </si>
+  <si>
+    <t>落花@藤原千花</t>
+  </si>
+  <si>
+    <t>落花 樱井翔子</t>
+  </si>
+  <si>
+    <t>群昵称</t>
+  </si>
+  <si>
+    <t>入群时间</t>
+  </si>
+  <si>
+    <t>2019/08/13</t>
+  </si>
+  <si>
     <t>落花der顾榆妍（</t>
-  </si>
-  <si>
-    <t>769521738</t>
-  </si>
-  <si>
-    <t>落花-白茶</t>
-  </si>
-  <si>
-    <t>3200441406</t>
-  </si>
-  <si>
-    <t>落花_草莓有点</t>
-  </si>
-  <si>
-    <t>3085795283</t>
-  </si>
-  <si>
-    <t>落花"桃之夭夭</t>
-  </si>
-  <si>
-    <t>648875355</t>
-  </si>
-  <si>
-    <t>落花—陆阮阮</t>
-  </si>
-  <si>
-    <t>724187504</t>
-  </si>
-  <si>
-    <t>落花⭐Rai</t>
-  </si>
-  <si>
-    <t>793019511</t>
-  </si>
-  <si>
-    <t>落花ฅ稷晞</t>
-  </si>
-  <si>
-    <t>2473375876</t>
-  </si>
-  <si>
-    <t>落花林咕啾</t>
-  </si>
-  <si>
-    <t>30137763</t>
-  </si>
-  <si>
-    <t>落花-樱茶</t>
-  </si>
-  <si>
-    <t>15451377</t>
-  </si>
-  <si>
-    <t>落花·紫</t>
-  </si>
-  <si>
-    <t>779867533</t>
-  </si>
-  <si>
-    <t>落花๑顾安白</t>
-  </si>
-  <si>
-    <t>799908427</t>
-  </si>
-  <si>
-    <t>落花-小枫</t>
-  </si>
-  <si>
-    <t>3240236818</t>
-  </si>
-  <si>
-    <t>落花 秦意</t>
-  </si>
-  <si>
-    <t>823284435</t>
-  </si>
-  <si>
-    <t>落花—鸭小梨</t>
-  </si>
-  <si>
-    <t>2169226881</t>
-  </si>
-  <si>
-    <t>落花.薇尔莉特</t>
-  </si>
-  <si>
-    <t>1239530393</t>
-  </si>
-  <si>
-    <t>落花" 苏久久</t>
-  </si>
-  <si>
-    <t>1841469477</t>
-  </si>
-  <si>
-    <t>天淼—落花</t>
-  </si>
-  <si>
-    <t>348280606</t>
-  </si>
-  <si>
-    <t>落花 白寄岚洛</t>
-  </si>
-  <si>
-    <t>1941489960</t>
-  </si>
-  <si>
-    <t>落花 早纪畈枝</t>
-  </si>
-  <si>
-    <t>745415648</t>
-  </si>
-  <si>
-    <t>落花 小虚</t>
-  </si>
-  <si>
-    <t>1025385659</t>
-  </si>
-  <si>
-    <t>落花 柚歆</t>
-  </si>
-  <si>
-    <t>992526373</t>
-  </si>
-  <si>
-    <t>落花 slily</t>
-  </si>
-  <si>
-    <t>205678875</t>
-  </si>
-  <si>
-    <t>落花  轻语</t>
-  </si>
-  <si>
-    <t>923418164</t>
-  </si>
-  <si>
-    <t>落花 千早</t>
-  </si>
-  <si>
-    <t>714548844</t>
-  </si>
-  <si>
-    <t>落花 爸爸</t>
-  </si>
-  <si>
-    <t>2173295938</t>
-  </si>
-  <si>
-    <t>落花 清酒卿</t>
-  </si>
-  <si>
-    <t>363193357</t>
-  </si>
-  <si>
-    <t>落花 花浔</t>
-  </si>
-  <si>
-    <t>1937237519</t>
-  </si>
-  <si>
-    <t>落花 桃花换酒</t>
-  </si>
-  <si>
-    <t>535509797</t>
-  </si>
-  <si>
-    <t>落花，灰姐</t>
-  </si>
-  <si>
-    <t>1040250547</t>
-  </si>
-  <si>
-    <t>落花ʚ阿喵王子</t>
-  </si>
-  <si>
-    <t>651570472</t>
-  </si>
-  <si>
-    <t>落花 EXO</t>
-  </si>
-  <si>
-    <t>879583569</t>
-  </si>
-  <si>
-    <t>落花 无尤</t>
-  </si>
-  <si>
-    <t>1369562367</t>
-  </si>
-  <si>
-    <t>落花ω天天</t>
-  </si>
-  <si>
-    <t>2940604709</t>
-  </si>
-  <si>
-    <t>落花-24k草莓小</t>
-  </si>
-  <si>
-    <t>1941389796</t>
-  </si>
-  <si>
-    <t>落花 川奈</t>
-  </si>
-  <si>
-    <t>39302003</t>
-  </si>
-  <si>
-    <t>落花 神仙</t>
-  </si>
-  <si>
-    <t>3476601463</t>
-  </si>
-  <si>
-    <t>落花 阿幼</t>
-  </si>
-  <si>
-    <t>1664171803</t>
-  </si>
-  <si>
-    <t>落花 总攻大人</t>
-  </si>
-  <si>
-    <t>2406417774</t>
-  </si>
-  <si>
-    <t>落花 苏其凉</t>
-  </si>
-  <si>
-    <t>1056711058</t>
-  </si>
-  <si>
-    <t>落花：翎羽</t>
-  </si>
-  <si>
-    <t>1130056290</t>
-  </si>
-  <si>
-    <t>落花～辉光叶</t>
-  </si>
-  <si>
-    <t>2661759612</t>
-  </si>
-  <si>
-    <t>落花 路希</t>
-  </si>
-  <si>
-    <t>121398489</t>
-  </si>
-  <si>
-    <t>落花_鸭鸭</t>
-  </si>
-  <si>
-    <t>710237833</t>
-  </si>
-  <si>
-    <t>落花 可露丽</t>
-  </si>
-  <si>
-    <t>729008532</t>
-  </si>
-  <si>
-    <t>落花~ 春风十里</t>
-  </si>
-  <si>
-    <t>1369593175</t>
-  </si>
-  <si>
-    <t>落花～～心城</t>
-  </si>
-  <si>
-    <t>924110951</t>
-  </si>
-  <si>
-    <t>落花@楚锦妮</t>
-  </si>
-  <si>
-    <t>781898849</t>
-  </si>
-  <si>
-    <t>落花-KGAoi</t>
-  </si>
-  <si>
-    <t>784945709</t>
-  </si>
-  <si>
-    <t>落花-花祭夜</t>
-  </si>
-  <si>
-    <t>727791466</t>
-  </si>
-  <si>
-    <t>落花+天辟</t>
-  </si>
-  <si>
-    <t>1393363961</t>
-  </si>
-  <si>
-    <t>落花 红茶喵喵</t>
-  </si>
-  <si>
-    <t>1472517975</t>
-  </si>
-  <si>
-    <t>落花~HAMEL</t>
-  </si>
-  <si>
-    <t>505644622</t>
-  </si>
-  <si>
-    <t>落花◈啾啾</t>
-  </si>
-  <si>
-    <t>1327354755</t>
-  </si>
-  <si>
-    <t>落花 清水奈绪</t>
-  </si>
-  <si>
-    <t>1755065148</t>
-  </si>
-  <si>
-    <t>落花  赖皮蛇</t>
-  </si>
-  <si>
-    <t>528508085</t>
-  </si>
-  <si>
-    <t>落花]_[王寒羽</t>
-  </si>
-  <si>
-    <t>2605384970</t>
-  </si>
-  <si>
-    <t>落花-清茶</t>
-  </si>
-  <si>
-    <t>974687361</t>
-  </si>
-  <si>
-    <t>落花-清水</t>
-  </si>
-  <si>
-    <t>1223871051</t>
-  </si>
-  <si>
-    <t>落花，初</t>
-  </si>
-  <si>
-    <t>1543607287</t>
-  </si>
-  <si>
-    <t>落花๑兰摧玉折</t>
-  </si>
-  <si>
-    <t>821515617</t>
-  </si>
-  <si>
-    <t>落花-谢南</t>
-  </si>
-  <si>
-    <t>2971057903</t>
-  </si>
-  <si>
-    <t>落花-细语</t>
-  </si>
-  <si>
-    <t>371212327</t>
-  </si>
-  <si>
-    <t>落花@冷月小猫</t>
-  </si>
-  <si>
-    <t>2192665938</t>
-  </si>
-  <si>
-    <t>落花 奶味汐月</t>
-  </si>
-  <si>
-    <t>2638588219</t>
-  </si>
-  <si>
-    <t>落花–洱瓷</t>
-  </si>
-  <si>
-    <t>群昵称</t>
-  </si>
-  <si>
-    <t>入群时间</t>
-  </si>
-  <si>
-    <t>2019/08/13</t>
   </si>
   <si>
     <t>2019/08/08</t>
@@ -1493,8 +1886,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1514,16 +1907,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1537,8 +1953,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1552,32 +1976,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1590,7 +2000,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1604,30 +2014,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -1635,9 +2021,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1645,7 +2030,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1679,37 +2072,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1721,79 +2120,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1811,19 +2138,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1841,19 +2174,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1863,8 +2196,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1873,11 +2266,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1936,15 +2379,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1962,11 +2396,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1976,10 +2408,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1988,145 +2420,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="3">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2493,28 +2933,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3760,623 +4200,2370 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:AR73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="5.125" customWidth="1"/>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:44">
       <c r="A1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="5"/>
+    </row>
+    <row r="2" spans="1:44">
+      <c r="A2" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6">
+        <v>43690</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6">
+        <v>43691</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6">
+        <v>43692</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="6">
+        <v>43693</v>
+      </c>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="6">
+        <v>43694</v>
+      </c>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="6">
+        <v>43695</v>
+      </c>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="6">
+        <v>43696</v>
+      </c>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="5"/>
+    </row>
+    <row r="3" spans="1:44">
+      <c r="A3" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B3" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="H3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="J3" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K3" t="s">
-        <v>203</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="L3" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>204</v>
       </c>
+      <c r="P3" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM3" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN3" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>205</v>
+      <c r="A4" s="9" t="s">
+        <v>209</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>207</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>209</v>
+        <v>212</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5">
+        <v>100000</v>
+      </c>
+      <c r="L5" t="s">
+        <v>214</v>
+      </c>
+      <c r="U5" t="s">
+        <v>215</v>
+      </c>
+      <c r="V5" t="s">
+        <v>216</v>
+      </c>
+      <c r="W5">
+        <v>1200000</v>
+      </c>
+      <c r="X5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>219</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6">
+        <v>390000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6">
+        <v>370000</v>
+      </c>
+      <c r="L6" t="s">
+        <v>151</v>
+      </c>
+      <c r="O6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q6">
+        <v>450000</v>
+      </c>
+      <c r="R6" t="s">
+        <v>221</v>
+      </c>
+      <c r="U6" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" t="s">
+        <v>220</v>
+      </c>
+      <c r="W6">
+        <v>450000</v>
+      </c>
+      <c r="X6" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>211</v>
+      <c r="A7" s="9" t="s">
+        <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>213</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+        <v>226</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8">
+        <v>530000</v>
+      </c>
+      <c r="L8" t="s">
+        <v>227</v>
+      </c>
+      <c r="U8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W8">
+        <v>530000</v>
+      </c>
+      <c r="X8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9">
+        <v>460000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>231</v>
+      </c>
+      <c r="K9">
+        <v>700000</v>
+      </c>
+      <c r="L9" t="s">
+        <v>232</v>
+      </c>
+      <c r="O9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q9">
+        <v>780000</v>
+      </c>
+      <c r="R9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10">
+        <v>570000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10">
+        <v>690000</v>
+      </c>
+      <c r="L10" t="s">
+        <v>237</v>
+      </c>
+      <c r="O10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10">
+        <v>730000</v>
+      </c>
+      <c r="R10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>880000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11">
+        <v>1365000</v>
+      </c>
+      <c r="L11" t="s">
+        <v>154</v>
+      </c>
+      <c r="O11" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q11">
+        <v>1425000</v>
+      </c>
+      <c r="R11" t="s">
+        <v>242</v>
+      </c>
+      <c r="U11" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" t="s">
+        <v>243</v>
+      </c>
+      <c r="W11">
+        <v>990000</v>
+      </c>
+      <c r="X11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E12">
+        <v>290000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>249</v>
+      </c>
+      <c r="I12" t="s">
+        <v>247</v>
+      </c>
+      <c r="J12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12">
+        <v>320000</v>
+      </c>
+      <c r="L12" t="s">
+        <v>250</v>
+      </c>
+      <c r="O12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q12">
+        <v>360000</v>
+      </c>
+      <c r="R12" t="s">
+        <v>252</v>
+      </c>
+      <c r="U12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" t="s">
+        <v>253</v>
+      </c>
+      <c r="W12">
+        <v>380000</v>
+      </c>
+      <c r="X12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14">
+        <v>730000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>186</v>
+      </c>
+      <c r="K14">
+        <v>740000</v>
+      </c>
+      <c r="L14" t="s">
+        <v>185</v>
+      </c>
+      <c r="O14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q14">
+        <v>946000</v>
+      </c>
+      <c r="R14" t="s">
+        <v>259</v>
+      </c>
+      <c r="U14" t="s">
+        <v>33</v>
+      </c>
+      <c r="V14" t="s">
+        <v>260</v>
+      </c>
+      <c r="W14">
+        <v>968000</v>
+      </c>
+      <c r="X14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>690000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15">
+        <v>700000</v>
+      </c>
+      <c r="L15" t="s">
+        <v>148</v>
+      </c>
+      <c r="U15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V15" t="s">
+        <v>264</v>
+      </c>
+      <c r="W15">
+        <v>770000</v>
+      </c>
+      <c r="X15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>250000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17">
+        <v>330000</v>
+      </c>
+      <c r="R17" t="s">
+        <v>270</v>
+      </c>
+      <c r="U17" t="s">
+        <v>271</v>
+      </c>
+      <c r="V17" t="s">
+        <v>100</v>
+      </c>
+      <c r="W17">
+        <v>495000</v>
+      </c>
+      <c r="X17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>660000</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18">
+        <v>1005000</v>
+      </c>
+      <c r="L18" t="s">
+        <v>179</v>
+      </c>
+      <c r="O18" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q18">
+        <v>700000</v>
+      </c>
+      <c r="R18" t="s">
+        <v>275</v>
+      </c>
+      <c r="U18" t="s">
+        <v>12</v>
+      </c>
+      <c r="V18" t="s">
+        <v>192</v>
+      </c>
+      <c r="W18">
+        <v>710000</v>
+      </c>
+      <c r="X18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" t="s">
+        <v>278</v>
+      </c>
+      <c r="F19" t="s">
+        <v>279</v>
+      </c>
+      <c r="L19" t="s">
+        <v>280</v>
+      </c>
+      <c r="O19" t="s">
+        <v>247</v>
+      </c>
+      <c r="P19" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19">
+        <v>390000</v>
+      </c>
+      <c r="R19" t="s">
+        <v>281</v>
+      </c>
+      <c r="U19" t="s">
+        <v>247</v>
+      </c>
+      <c r="V19" t="s">
+        <v>282</v>
+      </c>
+      <c r="W19">
+        <v>400000</v>
+      </c>
+      <c r="X19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20">
+        <v>350000</v>
+      </c>
+      <c r="F20" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" t="s">
+        <v>247</v>
+      </c>
+      <c r="J20" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20">
+        <v>350000</v>
+      </c>
+      <c r="L20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>289</v>
+      </c>
+      <c r="E21">
+        <v>470000</v>
+      </c>
+      <c r="F21" t="s">
+        <v>290</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" t="s">
+        <v>289</v>
+      </c>
+      <c r="K21">
+        <v>470000</v>
+      </c>
+      <c r="L21" t="s">
+        <v>291</v>
+      </c>
+      <c r="O21" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21">
+        <v>530000</v>
+      </c>
+      <c r="R21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B22" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22">
+        <v>780000</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22">
+        <v>860000</v>
+      </c>
+      <c r="L22" t="s">
+        <v>160</v>
+      </c>
+      <c r="O22" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q22">
+        <v>940000</v>
+      </c>
+      <c r="R22" t="s">
+        <v>296</v>
+      </c>
+      <c r="U22" t="s">
+        <v>12</v>
+      </c>
+      <c r="V22" t="s">
+        <v>297</v>
+      </c>
+      <c r="W22">
+        <v>960000</v>
+      </c>
+      <c r="X22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23">
+        <v>320000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23">
+        <v>320000</v>
+      </c>
+      <c r="L23" t="s">
+        <v>301</v>
+      </c>
+      <c r="O23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q23">
+        <v>380000</v>
+      </c>
+      <c r="R23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24">
+        <v>429000</v>
+      </c>
+      <c r="F24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24">
+        <v>390000</v>
+      </c>
+      <c r="L24" t="s">
+        <v>188</v>
+      </c>
+      <c r="O24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q24">
+        <v>390000</v>
+      </c>
+      <c r="R24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25" t="s">
+        <v>307</v>
+      </c>
+      <c r="C25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D25" t="s">
+        <v>309</v>
+      </c>
+      <c r="E25">
+        <v>470000</v>
+      </c>
+      <c r="F25" t="s">
+        <v>310</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25">
+        <v>510000</v>
+      </c>
+      <c r="L25" t="s">
+        <v>196</v>
+      </c>
+      <c r="U25" t="s">
+        <v>12</v>
+      </c>
+      <c r="V25" t="s">
+        <v>311</v>
+      </c>
+      <c r="W25">
+        <v>550000</v>
+      </c>
+      <c r="X25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B26" t="s">
+        <v>314</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26">
+        <v>690000</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" t="s">
+        <v>167</v>
+      </c>
+      <c r="K26">
+        <v>760000</v>
+      </c>
+      <c r="L26" t="s">
+        <v>166</v>
+      </c>
+      <c r="O26" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q26">
+        <v>770000</v>
+      </c>
+      <c r="R26" t="s">
+        <v>315</v>
+      </c>
+      <c r="U26" t="s">
+        <v>12</v>
+      </c>
+      <c r="V26" t="s">
+        <v>50</v>
+      </c>
+      <c r="W26">
+        <v>790000</v>
+      </c>
+      <c r="X26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B27" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B28" t="s">
+        <v>320</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28">
+        <v>650000</v>
+      </c>
+      <c r="F28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" t="s">
         <v>215</v>
       </c>
-      <c r="B9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>217</v>
-      </c>
-      <c r="B10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="J28" t="s">
+        <v>186</v>
+      </c>
+      <c r="K28">
+        <v>888000</v>
+      </c>
+      <c r="L28" t="s">
+        <v>321</v>
+      </c>
+      <c r="O28" t="s">
+        <v>84</v>
+      </c>
+      <c r="P28" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q28">
+        <v>1275000</v>
+      </c>
+      <c r="R28" t="s">
+        <v>323</v>
+      </c>
+      <c r="U28" t="s">
+        <v>33</v>
+      </c>
+      <c r="V28" t="s">
+        <v>161</v>
+      </c>
+      <c r="W28">
+        <v>946000</v>
+      </c>
+      <c r="X28" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B30" t="s">
+        <v>328</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>330000</v>
+      </c>
+      <c r="F30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B31" t="s">
+        <v>330</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31">
+        <v>790000</v>
+      </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31">
+        <v>790000</v>
+      </c>
+      <c r="L31" t="s">
+        <v>184</v>
+      </c>
+      <c r="O31" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q31">
+        <v>810000</v>
+      </c>
+      <c r="R31" t="s">
+        <v>332</v>
+      </c>
+      <c r="U31" t="s">
+        <v>12</v>
+      </c>
+      <c r="V31" t="s">
+        <v>331</v>
+      </c>
+      <c r="W31">
+        <v>810000</v>
+      </c>
+      <c r="X31" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B32" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B33" t="s">
+        <v>337</v>
+      </c>
+      <c r="I33" t="s">
+        <v>247</v>
+      </c>
+      <c r="J33" t="s">
+        <v>338</v>
+      </c>
+      <c r="K33">
+        <v>680000</v>
+      </c>
+      <c r="L33" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B34" t="s">
+        <v>341</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34">
+        <v>270000</v>
+      </c>
+      <c r="F34" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34">
+        <v>280000</v>
+      </c>
+      <c r="L34" t="s">
+        <v>194</v>
+      </c>
+      <c r="O34" t="s">
+        <v>12</v>
+      </c>
+      <c r="P34" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q34">
+        <v>310000</v>
+      </c>
+      <c r="R34" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B35" t="s">
+        <v>345</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35">
+        <v>500000</v>
+      </c>
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" t="s">
+        <v>158</v>
+      </c>
+      <c r="K35">
+        <v>638000</v>
+      </c>
+      <c r="L35" t="s">
+        <v>157</v>
+      </c>
+      <c r="O35" t="s">
+        <v>33</v>
+      </c>
+      <c r="P35" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q35">
+        <v>671000</v>
+      </c>
+      <c r="R35" t="s">
+        <v>346</v>
+      </c>
+      <c r="U35" t="s">
+        <v>127</v>
+      </c>
+      <c r="V35" t="s">
+        <v>37</v>
+      </c>
+      <c r="W35">
+        <v>897000</v>
+      </c>
+      <c r="X35" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B36" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B37" t="s">
+        <v>351</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37">
+        <v>308000</v>
+      </c>
+      <c r="F37" t="s">
+        <v>129</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" t="s">
+        <v>352</v>
+      </c>
+      <c r="K37">
+        <v>300000</v>
+      </c>
+      <c r="L37" t="s">
+        <v>353</v>
+      </c>
+      <c r="O37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P37" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q37">
+        <v>330000</v>
+      </c>
+      <c r="R37" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B38" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B39" t="s">
+        <v>358</v>
+      </c>
+      <c r="X39" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B40" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="A41" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B41" t="s">
+        <v>363</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41">
+        <v>560000</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" t="s">
+        <v>164</v>
+      </c>
+      <c r="K41">
+        <v>640000</v>
+      </c>
+      <c r="L41" t="s">
+        <v>163</v>
+      </c>
+      <c r="U41" t="s">
+        <v>308</v>
+      </c>
+      <c r="V41" t="s">
+        <v>149</v>
+      </c>
+      <c r="W41">
+        <v>700000</v>
+      </c>
+      <c r="X41" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B42" t="s">
+        <v>366</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42">
+        <v>690000</v>
+      </c>
+      <c r="F42" t="s">
+        <v>90</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" t="s">
+        <v>192</v>
+      </c>
+      <c r="K42">
+        <v>710000</v>
+      </c>
+      <c r="L42" t="s">
+        <v>191</v>
+      </c>
+      <c r="O42" t="s">
+        <v>12</v>
+      </c>
+      <c r="P42" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q42">
+        <v>730000</v>
+      </c>
+      <c r="R42" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B43" t="s">
+        <v>369</v>
+      </c>
+      <c r="O43" t="s">
+        <v>247</v>
+      </c>
+      <c r="P43" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q43">
+        <v>330000</v>
+      </c>
+      <c r="R43" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B44" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
+      <c r="A45" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B45" t="s">
+        <v>375</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45">
+        <v>390000</v>
+      </c>
+      <c r="F45" t="s">
+        <v>137</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" t="s">
+        <v>376</v>
+      </c>
+      <c r="K45">
+        <v>440000</v>
+      </c>
+      <c r="L45" t="s">
+        <v>377</v>
+      </c>
+      <c r="O45" t="s">
+        <v>12</v>
+      </c>
+      <c r="P45" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q45">
+        <v>450000</v>
+      </c>
+      <c r="R45" t="s">
+        <v>379</v>
+      </c>
+      <c r="U45" t="s">
+        <v>12</v>
+      </c>
+      <c r="V45" t="s">
+        <v>380</v>
+      </c>
+      <c r="W45">
+        <v>480000</v>
+      </c>
+      <c r="X45" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B46" t="s">
+        <v>383</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46">
+        <v>402440</v>
+      </c>
+      <c r="F46" t="s">
+        <v>75</v>
+      </c>
+      <c r="O46" t="s">
+        <v>12</v>
+      </c>
+      <c r="P46" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q46">
+        <v>10619350</v>
+      </c>
+      <c r="R46" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="B47" t="s">
+        <v>387</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47">
+        <v>650000</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" t="s">
+        <v>180</v>
+      </c>
+      <c r="K47">
+        <v>670000</v>
+      </c>
+      <c r="L47" t="s">
+        <v>182</v>
+      </c>
+      <c r="O47" t="s">
+        <v>12</v>
+      </c>
+      <c r="P47" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q47">
+        <v>670000</v>
+      </c>
+      <c r="R47" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B48" t="s">
+        <v>390</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48">
+        <v>330000</v>
+      </c>
+      <c r="F48" t="s">
+        <v>145</v>
+      </c>
+      <c r="I48" t="s">
+        <v>247</v>
+      </c>
+      <c r="J48" t="s">
+        <v>253</v>
+      </c>
+      <c r="K48">
+        <v>380000</v>
+      </c>
+      <c r="L48" t="s">
+        <v>391</v>
+      </c>
+      <c r="O48" t="s">
+        <v>12</v>
+      </c>
+      <c r="P48" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q48">
+        <v>400000</v>
+      </c>
+      <c r="R48" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B49" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B50" t="s">
+        <v>396</v>
+      </c>
+      <c r="U50" t="s">
+        <v>12</v>
+      </c>
+      <c r="V50" t="s">
+        <v>62</v>
+      </c>
+      <c r="W50">
+        <v>390000</v>
+      </c>
+      <c r="X50" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B51" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B52" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="B53" t="s">
+        <v>403</v>
+      </c>
+      <c r="C53" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53">
+        <v>702000</v>
+      </c>
+      <c r="F53" t="s">
+        <v>126</v>
+      </c>
+      <c r="I53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" t="s">
+        <v>88</v>
+      </c>
+      <c r="K53">
+        <v>650000</v>
+      </c>
+      <c r="L53" t="s">
+        <v>404</v>
+      </c>
+      <c r="O53" t="s">
+        <v>12</v>
+      </c>
+      <c r="P53" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q53">
+        <v>660000</v>
+      </c>
+      <c r="R53" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B54" t="s">
+        <v>407</v>
+      </c>
+      <c r="C54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54">
+        <v>913000</v>
+      </c>
+      <c r="F54" t="s">
+        <v>141</v>
+      </c>
+      <c r="I54" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54" t="s">
+        <v>295</v>
+      </c>
+      <c r="K54">
+        <v>1034000</v>
+      </c>
+      <c r="L54" t="s">
+        <v>408</v>
+      </c>
+      <c r="O54" t="s">
+        <v>33</v>
+      </c>
+      <c r="P54" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q54">
+        <v>1155000</v>
+      </c>
+      <c r="R54" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B55" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
+      <c r="A56" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B56" t="s">
+        <v>414</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56">
+        <v>610000</v>
+      </c>
+      <c r="F56" t="s">
+        <v>118</v>
+      </c>
+      <c r="I56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+      <c r="K56">
+        <v>650000</v>
+      </c>
+      <c r="L56" t="s">
+        <v>415</v>
+      </c>
+      <c r="O56" t="s">
+        <v>12</v>
+      </c>
+      <c r="P56" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q56">
+        <v>700000</v>
+      </c>
+      <c r="R56" t="s">
+        <v>416</v>
+      </c>
+      <c r="U56" t="s">
+        <v>12</v>
+      </c>
+      <c r="V56" t="s">
+        <v>417</v>
+      </c>
+      <c r="W56">
+        <v>720000</v>
+      </c>
+      <c r="X56" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B57" t="s">
+        <v>420</v>
+      </c>
+      <c r="C57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57">
+        <v>990000</v>
+      </c>
+      <c r="F57" t="s">
+        <v>82</v>
+      </c>
+      <c r="I57" t="s">
+        <v>84</v>
+      </c>
+      <c r="J57" t="s">
+        <v>167</v>
+      </c>
+      <c r="K57">
+        <v>1140000</v>
+      </c>
+      <c r="L57" t="s">
+        <v>421</v>
+      </c>
+      <c r="O57" t="s">
+        <v>84</v>
+      </c>
+      <c r="P57" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q57">
+        <v>1155000</v>
+      </c>
+      <c r="R57" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B58" t="s">
+        <v>424</v>
+      </c>
+      <c r="O58" t="s">
+        <v>84</v>
+      </c>
+      <c r="P58" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q58">
+        <v>1440000</v>
+      </c>
+      <c r="R58" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="A59" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B59" t="s">
+        <v>427</v>
+      </c>
+      <c r="F59" t="s">
+        <v>79</v>
+      </c>
+      <c r="I59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" t="s">
+        <v>174</v>
+      </c>
+      <c r="K59">
+        <v>460000</v>
+      </c>
+      <c r="L59" t="s">
+        <v>173</v>
+      </c>
+      <c r="O59" t="s">
+        <v>12</v>
+      </c>
+      <c r="P59" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q59">
+        <v>470000</v>
+      </c>
+      <c r="R59" t="s">
+        <v>429</v>
+      </c>
+      <c r="U59" t="s">
+        <v>12</v>
+      </c>
+      <c r="V59" t="s">
+        <v>198</v>
+      </c>
+      <c r="W59">
+        <v>510000</v>
+      </c>
+      <c r="X59" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B60" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B61" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B62" t="s">
+        <v>436</v>
+      </c>
+      <c r="C62" t="s">
+        <v>247</v>
+      </c>
+      <c r="D62" t="s">
+        <v>437</v>
+      </c>
+      <c r="E62">
+        <v>450000</v>
+      </c>
+      <c r="F62" t="s">
+        <v>438</v>
+      </c>
+      <c r="I62" t="s">
+        <v>247</v>
+      </c>
+      <c r="J62" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>223</v>
-      </c>
-      <c r="B13" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>225</v>
-      </c>
-      <c r="B14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>227</v>
-      </c>
-      <c r="B15" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>229</v>
-      </c>
-      <c r="B16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>231</v>
-      </c>
-      <c r="B17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>233</v>
-      </c>
-      <c r="B18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>235</v>
-      </c>
-      <c r="B19" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>237</v>
-      </c>
-      <c r="B20" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>239</v>
-      </c>
-      <c r="B21" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B22" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>243</v>
-      </c>
-      <c r="B23" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>245</v>
-      </c>
-      <c r="B24" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>247</v>
-      </c>
-      <c r="B25" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>249</v>
-      </c>
-      <c r="B26" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>251</v>
-      </c>
-      <c r="B27" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>253</v>
-      </c>
-      <c r="B28" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>255</v>
-      </c>
-      <c r="B29" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>257</v>
-      </c>
-      <c r="B30" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>259</v>
-      </c>
-      <c r="B31" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>261</v>
-      </c>
-      <c r="B32" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>263</v>
-      </c>
-      <c r="B33" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>265</v>
-      </c>
-      <c r="B34" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>267</v>
-      </c>
-      <c r="B35" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>269</v>
-      </c>
-      <c r="B36" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>271</v>
-      </c>
-      <c r="B37" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>273</v>
-      </c>
-      <c r="B38" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>275</v>
-      </c>
-      <c r="B39" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>277</v>
-      </c>
-      <c r="B40" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>279</v>
-      </c>
-      <c r="B41" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>281</v>
-      </c>
-      <c r="B42" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>283</v>
-      </c>
-      <c r="B43" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>285</v>
-      </c>
-      <c r="B44" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>287</v>
-      </c>
-      <c r="B45" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>289</v>
-      </c>
-      <c r="B46" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>291</v>
-      </c>
-      <c r="B47" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>293</v>
-      </c>
-      <c r="B48" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>295</v>
-      </c>
-      <c r="B49" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>297</v>
-      </c>
-      <c r="B50" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>299</v>
-      </c>
-      <c r="B51" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>301</v>
-      </c>
-      <c r="B52" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>303</v>
-      </c>
-      <c r="B53" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>305</v>
-      </c>
-      <c r="B54" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>307</v>
-      </c>
-      <c r="B55" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>309</v>
-      </c>
-      <c r="B56" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>311</v>
-      </c>
-      <c r="B57" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>313</v>
-      </c>
-      <c r="B58" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>315</v>
-      </c>
-      <c r="B59" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>317</v>
-      </c>
-      <c r="B60" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>319</v>
-      </c>
-      <c r="B61" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>321</v>
-      </c>
-      <c r="B62" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>323</v>
+      <c r="K62">
+        <v>450000</v>
+      </c>
+      <c r="L62" t="s">
+        <v>439</v>
+      </c>
+      <c r="O62" t="s">
+        <v>12</v>
+      </c>
+      <c r="P62" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q62">
+        <v>450000</v>
+      </c>
+      <c r="R62" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
+      <c r="A63" s="9" t="s">
+        <v>441</v>
       </c>
       <c r="B63" t="s">
-        <v>324</v>
+        <v>442</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
+        <v>54</v>
+      </c>
+      <c r="E63">
+        <v>550000</v>
+      </c>
+      <c r="F63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O63" t="s">
+        <v>12</v>
+      </c>
+      <c r="P63" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q63">
+        <v>650000</v>
+      </c>
+      <c r="R63" t="s">
+        <v>444</v>
+      </c>
+      <c r="U63" t="s">
+        <v>12</v>
+      </c>
+      <c r="V63" t="s">
+        <v>24</v>
+      </c>
+      <c r="W63">
+        <v>660000</v>
+      </c>
+      <c r="X63" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>325</v>
+      <c r="A64" s="9" t="s">
+        <v>446</v>
       </c>
       <c r="B64" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>327</v>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" s="9" t="s">
+        <v>448</v>
       </c>
       <c r="B65" t="s">
-        <v>328</v>
+        <v>449</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
+        <v>112</v>
+      </c>
+      <c r="E65">
+        <v>480000</v>
+      </c>
+      <c r="F65" t="s">
+        <v>110</v>
+      </c>
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" t="s">
+        <v>450</v>
+      </c>
+      <c r="K65">
+        <v>490000</v>
+      </c>
+      <c r="L65" t="s">
+        <v>451</v>
+      </c>
+      <c r="O65" t="s">
+        <v>12</v>
+      </c>
+      <c r="P65" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q65">
+        <v>540000</v>
+      </c>
+      <c r="R65" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>329</v>
+      <c r="A66" s="9" t="s">
+        <v>453</v>
       </c>
       <c r="B66" t="s">
-        <v>330</v>
+        <v>454</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>331</v>
+      <c r="A67" s="9" t="s">
+        <v>455</v>
       </c>
       <c r="B67" t="s">
-        <v>332</v>
+        <v>456</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>333</v>
+      <c r="A68" s="9" t="s">
+        <v>457</v>
       </c>
       <c r="B68" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>335</v>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="9" t="s">
+        <v>459</v>
       </c>
       <c r="B69" t="s">
-        <v>336</v>
+        <v>460</v>
+      </c>
+      <c r="R69" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="9">
+        <v>1157462424</v>
+      </c>
+      <c r="B70" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B71" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="9">
+        <v>491384166</v>
+      </c>
+      <c r="B72" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="9">
+        <v>1158425839</v>
+      </c>
+      <c r="B73" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:L1"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:AR1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="U2:Z2"/>
+    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="AG2:AL2"/>
+    <mergeCell ref="AM2:AR2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="A67" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4385,7 +6572,7 @@
   <sheetPr/>
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B67"/>
     </sheetView>
   </sheetViews>
@@ -4398,739 +6585,739 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>337</v>
+        <v>467</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>338</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C2" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>470</v>
       </c>
       <c r="C3" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C5" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="C7" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="C8" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="B10" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="C10" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="B11" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="C12" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="B13" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="C13" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="B14" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="C14" t="s">
-        <v>340</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="B15" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="C15" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="C16" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="B17" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="C17" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>237</v>
+        <v>284</v>
       </c>
       <c r="B18" t="s">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="C18" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="B19" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="C19" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="B20" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>243</v>
+        <v>299</v>
       </c>
       <c r="B21" t="s">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="C21" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="B22" t="s">
-        <v>246</v>
+        <v>304</v>
       </c>
       <c r="C22" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>247</v>
+        <v>306</v>
       </c>
       <c r="B23" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
       <c r="C23" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>249</v>
+        <v>313</v>
       </c>
       <c r="B24" t="s">
-        <v>250</v>
+        <v>314</v>
       </c>
       <c r="C24" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="B25" t="s">
-        <v>252</v>
+        <v>318</v>
       </c>
       <c r="C25" t="s">
-        <v>341</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>253</v>
+        <v>319</v>
       </c>
       <c r="B26" t="s">
-        <v>254</v>
+        <v>320</v>
       </c>
       <c r="C26" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>255</v>
+        <v>325</v>
       </c>
       <c r="B27" t="s">
-        <v>256</v>
+        <v>326</v>
       </c>
       <c r="C27" t="s">
-        <v>341</v>
+        <v>472</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>257</v>
+        <v>327</v>
       </c>
       <c r="B28" t="s">
-        <v>258</v>
+        <v>328</v>
       </c>
       <c r="C28" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="B29" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="C29" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>261</v>
+        <v>334</v>
       </c>
       <c r="B30" t="s">
-        <v>262</v>
+        <v>335</v>
       </c>
       <c r="C30" t="s">
-        <v>342</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>263</v>
+        <v>336</v>
       </c>
       <c r="B31" t="s">
-        <v>264</v>
+        <v>337</v>
       </c>
       <c r="C31" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>265</v>
+        <v>340</v>
       </c>
       <c r="B32" t="s">
-        <v>266</v>
+        <v>341</v>
       </c>
       <c r="C32" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="B33" t="s">
-        <v>268</v>
+        <v>345</v>
       </c>
       <c r="C33" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>269</v>
+        <v>348</v>
       </c>
       <c r="B34" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="C34" t="s">
-        <v>340</v>
+        <v>471</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>271</v>
+        <v>350</v>
       </c>
       <c r="B35" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="C35" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>273</v>
+        <v>355</v>
       </c>
       <c r="B36" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c r="C36" t="s">
-        <v>340</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="B37" t="s">
-        <v>276</v>
+        <v>358</v>
       </c>
       <c r="C37" t="s">
-        <v>343</v>
+        <v>474</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>277</v>
+        <v>360</v>
       </c>
       <c r="B38" t="s">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="C38" t="s">
-        <v>340</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>279</v>
+        <v>362</v>
       </c>
       <c r="B39" t="s">
-        <v>280</v>
+        <v>363</v>
       </c>
       <c r="C39" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>281</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s">
-        <v>282</v>
+        <v>366</v>
       </c>
       <c r="C40" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>283</v>
+        <v>368</v>
       </c>
       <c r="B41" t="s">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="C41" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>285</v>
+        <v>372</v>
       </c>
       <c r="B42" t="s">
-        <v>286</v>
+        <v>373</v>
       </c>
       <c r="C42" t="s">
-        <v>344</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>287</v>
+        <v>374</v>
       </c>
       <c r="B43" t="s">
-        <v>288</v>
+        <v>375</v>
       </c>
       <c r="C43" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>289</v>
+        <v>382</v>
       </c>
       <c r="B44" t="s">
-        <v>290</v>
+        <v>383</v>
       </c>
       <c r="C44" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>291</v>
+        <v>386</v>
       </c>
       <c r="B45" t="s">
-        <v>292</v>
+        <v>387</v>
       </c>
       <c r="C45" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>293</v>
+        <v>389</v>
       </c>
       <c r="B46" t="s">
-        <v>294</v>
+        <v>390</v>
       </c>
       <c r="C46" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>295</v>
+        <v>393</v>
       </c>
       <c r="B47" t="s">
-        <v>296</v>
+        <v>394</v>
       </c>
       <c r="C47" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>297</v>
+        <v>395</v>
       </c>
       <c r="B48" t="s">
-        <v>298</v>
+        <v>396</v>
       </c>
       <c r="C48" t="s">
-        <v>340</v>
+        <v>471</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>299</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="C49" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="B50" t="s">
-        <v>302</v>
+        <v>401</v>
       </c>
       <c r="C50" t="s">
-        <v>340</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>303</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s">
-        <v>304</v>
+        <v>403</v>
       </c>
       <c r="C51" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>305</v>
+        <v>406</v>
       </c>
       <c r="B52" t="s">
-        <v>306</v>
+        <v>407</v>
       </c>
       <c r="C52" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>307</v>
+        <v>411</v>
       </c>
       <c r="B53" t="s">
-        <v>308</v>
+        <v>412</v>
       </c>
       <c r="C53" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>309</v>
+        <v>413</v>
       </c>
       <c r="B54" t="s">
-        <v>310</v>
+        <v>414</v>
       </c>
       <c r="C54" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>311</v>
+        <v>419</v>
       </c>
       <c r="B55" t="s">
-        <v>312</v>
+        <v>420</v>
       </c>
       <c r="C55" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>313</v>
+        <v>423</v>
       </c>
       <c r="B56" t="s">
-        <v>314</v>
+        <v>424</v>
       </c>
       <c r="C56" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>315</v>
+        <v>426</v>
       </c>
       <c r="B57" t="s">
-        <v>316</v>
+        <v>427</v>
       </c>
       <c r="C57" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="B58" t="s">
-        <v>318</v>
+        <v>432</v>
       </c>
       <c r="C58" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>319</v>
+        <v>433</v>
       </c>
       <c r="B59" t="s">
-        <v>320</v>
+        <v>434</v>
       </c>
       <c r="C59" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>321</v>
+        <v>435</v>
       </c>
       <c r="B60" t="s">
-        <v>322</v>
+        <v>436</v>
       </c>
       <c r="C60" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>323</v>
+        <v>441</v>
       </c>
       <c r="B61" t="s">
-        <v>324</v>
+        <v>442</v>
       </c>
       <c r="C61" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>325</v>
+        <v>446</v>
       </c>
       <c r="B62" t="s">
-        <v>326</v>
+        <v>447</v>
       </c>
       <c r="C62" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>327</v>
+        <v>448</v>
       </c>
       <c r="B63" t="s">
-        <v>328</v>
+        <v>449</v>
       </c>
       <c r="C63" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>329</v>
+        <v>453</v>
       </c>
       <c r="B64" t="s">
-        <v>330</v>
+        <v>454</v>
       </c>
       <c r="C64" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>331</v>
+        <v>455</v>
       </c>
       <c r="B65" t="s">
-        <v>332</v>
+        <v>456</v>
       </c>
       <c r="C65" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>333</v>
+        <v>457</v>
       </c>
       <c r="B66" t="s">
-        <v>334</v>
+        <v>458</v>
       </c>
       <c r="C66" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>335</v>
+        <v>459</v>
       </c>
       <c r="B67" t="s">
-        <v>336</v>
+        <v>460</v>
       </c>
       <c r="C67" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -5157,794 +7344,794 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>337</v>
+        <v>467</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>338</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>476</v>
       </c>
       <c r="B2" t="s">
-        <v>346</v>
+        <v>477</v>
       </c>
       <c r="C2" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>479</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>480</v>
       </c>
       <c r="C3" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>481</v>
       </c>
       <c r="B4" t="s">
-        <v>351</v>
+        <v>482</v>
       </c>
       <c r="C4" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>352</v>
+        <v>483</v>
       </c>
       <c r="B5" t="s">
-        <v>353</v>
+        <v>484</v>
       </c>
       <c r="C5" t="s">
-        <v>354</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>355</v>
+        <v>486</v>
       </c>
       <c r="B6" t="s">
-        <v>356</v>
+        <v>487</v>
       </c>
       <c r="C6" t="s">
-        <v>354</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>357</v>
+        <v>488</v>
       </c>
       <c r="B7" t="s">
-        <v>358</v>
+        <v>489</v>
       </c>
       <c r="C7" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>359</v>
+        <v>490</v>
       </c>
       <c r="B8" t="s">
-        <v>360</v>
+        <v>491</v>
       </c>
       <c r="C8" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>492</v>
       </c>
       <c r="B9" t="s">
-        <v>362</v>
+        <v>493</v>
       </c>
       <c r="C9" t="s">
-        <v>342</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>363</v>
+        <v>494</v>
       </c>
       <c r="B10" t="s">
-        <v>364</v>
+        <v>495</v>
       </c>
       <c r="C10" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>365</v>
+        <v>496</v>
       </c>
       <c r="B11" t="s">
-        <v>366</v>
+        <v>497</v>
       </c>
       <c r="C11" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>367</v>
+        <v>498</v>
       </c>
       <c r="B12" t="s">
-        <v>368</v>
+        <v>499</v>
       </c>
       <c r="C12" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>500</v>
       </c>
       <c r="B13" t="s">
-        <v>370</v>
+        <v>501</v>
       </c>
       <c r="C13" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>371</v>
+        <v>502</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>503</v>
       </c>
       <c r="C14" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>373</v>
+        <v>504</v>
       </c>
       <c r="B15" t="s">
-        <v>374</v>
+        <v>505</v>
       </c>
       <c r="C15" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>375</v>
+        <v>506</v>
       </c>
       <c r="B16" t="s">
-        <v>376</v>
+        <v>507</v>
       </c>
       <c r="C16" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>377</v>
+        <v>508</v>
       </c>
       <c r="B17" t="s">
-        <v>378</v>
+        <v>509</v>
       </c>
       <c r="C17" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>379</v>
+        <v>510</v>
       </c>
       <c r="B18" t="s">
-        <v>380</v>
+        <v>511</v>
       </c>
       <c r="C18" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>381</v>
+        <v>512</v>
       </c>
       <c r="B19" t="s">
-        <v>382</v>
+        <v>513</v>
       </c>
       <c r="C19" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>383</v>
+        <v>514</v>
       </c>
       <c r="B20" t="s">
-        <v>384</v>
+        <v>515</v>
       </c>
       <c r="C20" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>385</v>
+        <v>516</v>
       </c>
       <c r="B21" t="s">
-        <v>386</v>
+        <v>517</v>
       </c>
       <c r="C21" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>387</v>
+        <v>518</v>
       </c>
       <c r="B22" t="s">
-        <v>388</v>
+        <v>519</v>
       </c>
       <c r="C22" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>389</v>
+        <v>520</v>
       </c>
       <c r="B23" t="s">
-        <v>390</v>
+        <v>521</v>
       </c>
       <c r="C23" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>391</v>
+        <v>522</v>
       </c>
       <c r="B24" t="s">
-        <v>392</v>
+        <v>523</v>
       </c>
       <c r="C24" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>393</v>
+        <v>524</v>
       </c>
       <c r="B25" t="s">
-        <v>394</v>
+        <v>525</v>
       </c>
       <c r="C25" t="s">
-        <v>344</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>395</v>
+        <v>526</v>
       </c>
       <c r="B26" t="s">
-        <v>396</v>
+        <v>527</v>
       </c>
       <c r="C26" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>397</v>
+        <v>528</v>
       </c>
       <c r="B27" t="s">
-        <v>398</v>
+        <v>529</v>
       </c>
       <c r="C27" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>399</v>
+        <v>530</v>
       </c>
       <c r="B28" t="s">
-        <v>400</v>
+        <v>531</v>
       </c>
       <c r="C28" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>401</v>
+        <v>532</v>
       </c>
       <c r="B29" t="s">
-        <v>402</v>
+        <v>533</v>
       </c>
       <c r="C29" t="s">
-        <v>340</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>403</v>
+        <v>534</v>
       </c>
       <c r="B30" t="s">
-        <v>404</v>
+        <v>535</v>
       </c>
       <c r="C30" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>405</v>
+        <v>536</v>
       </c>
       <c r="B31" t="s">
-        <v>406</v>
+        <v>537</v>
       </c>
       <c r="C31" t="s">
-        <v>340</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>407</v>
+        <v>538</v>
       </c>
       <c r="B32" t="s">
-        <v>408</v>
+        <v>539</v>
       </c>
       <c r="C32" t="s">
-        <v>344</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>409</v>
+        <v>540</v>
       </c>
       <c r="B33" t="s">
-        <v>410</v>
+        <v>541</v>
       </c>
       <c r="C33" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>411</v>
+        <v>542</v>
       </c>
       <c r="B34" t="s">
-        <v>412</v>
+        <v>543</v>
       </c>
       <c r="C34" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>413</v>
+        <v>544</v>
       </c>
       <c r="B35" t="s">
-        <v>414</v>
+        <v>545</v>
       </c>
       <c r="C35" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>415</v>
+        <v>546</v>
       </c>
       <c r="B36" t="s">
-        <v>416</v>
+        <v>547</v>
       </c>
       <c r="C36" t="s">
-        <v>344</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>417</v>
+        <v>548</v>
       </c>
       <c r="B37" t="s">
-        <v>418</v>
+        <v>549</v>
       </c>
       <c r="C37" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>419</v>
+        <v>550</v>
       </c>
       <c r="B38" t="s">
-        <v>420</v>
+        <v>551</v>
       </c>
       <c r="C38" t="s">
-        <v>341</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>421</v>
+        <v>552</v>
       </c>
       <c r="B39" t="s">
-        <v>422</v>
+        <v>553</v>
       </c>
       <c r="C39" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>423</v>
+        <v>554</v>
       </c>
       <c r="B40" t="s">
-        <v>424</v>
+        <v>555</v>
       </c>
       <c r="C40" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>425</v>
+        <v>556</v>
       </c>
       <c r="B41" t="s">
-        <v>426</v>
+        <v>557</v>
       </c>
       <c r="C41" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>427</v>
+        <v>558</v>
       </c>
       <c r="B42" t="s">
-        <v>428</v>
+        <v>559</v>
       </c>
       <c r="C42" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>429</v>
+        <v>560</v>
       </c>
       <c r="B43" t="s">
-        <v>430</v>
+        <v>561</v>
       </c>
       <c r="C43" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>431</v>
+        <v>562</v>
       </c>
       <c r="B44" t="s">
-        <v>432</v>
+        <v>563</v>
       </c>
       <c r="C44" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>433</v>
+        <v>564</v>
       </c>
       <c r="B45" t="s">
-        <v>434</v>
+        <v>565</v>
       </c>
       <c r="C45" t="s">
-        <v>341</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>435</v>
+        <v>566</v>
       </c>
       <c r="B46" t="s">
-        <v>436</v>
+        <v>567</v>
       </c>
       <c r="C46" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="B47" t="s">
-        <v>438</v>
+        <v>569</v>
       </c>
       <c r="C47" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>439</v>
+        <v>570</v>
       </c>
       <c r="B48" t="s">
-        <v>440</v>
+        <v>571</v>
       </c>
       <c r="C48" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>441</v>
+        <v>572</v>
       </c>
       <c r="B49" t="s">
-        <v>442</v>
+        <v>573</v>
       </c>
       <c r="C49" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>443</v>
+        <v>574</v>
       </c>
       <c r="B50" t="s">
-        <v>444</v>
+        <v>575</v>
       </c>
       <c r="C50" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>445</v>
+        <v>576</v>
       </c>
       <c r="B51" t="s">
-        <v>446</v>
+        <v>577</v>
       </c>
       <c r="C51" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>447</v>
+        <v>578</v>
       </c>
       <c r="B52" t="s">
-        <v>448</v>
+        <v>579</v>
       </c>
       <c r="C52" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>449</v>
+        <v>580</v>
       </c>
       <c r="B53" t="s">
-        <v>450</v>
+        <v>581</v>
       </c>
       <c r="C53" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>451</v>
+        <v>582</v>
       </c>
       <c r="B54" t="s">
-        <v>452</v>
+        <v>583</v>
       </c>
       <c r="C54" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>453</v>
+        <v>584</v>
       </c>
       <c r="B55" t="s">
-        <v>454</v>
+        <v>585</v>
       </c>
       <c r="C55" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>455</v>
+        <v>586</v>
       </c>
       <c r="B56" t="s">
-        <v>456</v>
+        <v>587</v>
       </c>
       <c r="C56" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>457</v>
+        <v>588</v>
       </c>
       <c r="B57" t="s">
-        <v>458</v>
+        <v>589</v>
       </c>
       <c r="C57" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>459</v>
+        <v>590</v>
       </c>
       <c r="B58" t="s">
-        <v>460</v>
+        <v>591</v>
       </c>
       <c r="C58" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>461</v>
+        <v>592</v>
       </c>
       <c r="B59" t="s">
-        <v>462</v>
+        <v>593</v>
       </c>
       <c r="C59" t="s">
-        <v>341</v>
+        <v>472</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>463</v>
+        <v>594</v>
       </c>
       <c r="B60" t="s">
-        <v>464</v>
+        <v>595</v>
       </c>
       <c r="C60" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>465</v>
+        <v>596</v>
       </c>
       <c r="B61" t="s">
-        <v>466</v>
+        <v>597</v>
       </c>
       <c r="C61" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>467</v>
+        <v>598</v>
       </c>
       <c r="B62" t="s">
-        <v>468</v>
+        <v>599</v>
       </c>
       <c r="C62" t="s">
-        <v>341</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>469</v>
+        <v>600</v>
       </c>
       <c r="B63" t="s">
-        <v>470</v>
+        <v>601</v>
       </c>
       <c r="C63" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>471</v>
+        <v>602</v>
       </c>
       <c r="B64" t="s">
-        <v>472</v>
+        <v>603</v>
       </c>
       <c r="C64" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>473</v>
+        <v>604</v>
       </c>
       <c r="B65" t="s">
-        <v>474</v>
+        <v>605</v>
       </c>
       <c r="C65" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>475</v>
+        <v>606</v>
       </c>
       <c r="B66" t="s">
-        <v>476</v>
+        <v>607</v>
       </c>
       <c r="C66" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>477</v>
+        <v>608</v>
       </c>
       <c r="B67" t="s">
+        <v>609</v>
+      </c>
+      <c r="C67" t="s">
         <v>478</v>
-      </c>
-      <c r="C67" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>479</v>
+        <v>610</v>
       </c>
       <c r="B68" t="s">
-        <v>480</v>
+        <v>611</v>
       </c>
       <c r="C68" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>481</v>
+        <v>612</v>
       </c>
       <c r="B69" t="s">
-        <v>482</v>
+        <v>613</v>
       </c>
       <c r="C69" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>483</v>
+        <v>614</v>
       </c>
       <c r="B70" t="s">
-        <v>484</v>
+        <v>615</v>
       </c>
       <c r="C70" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>485</v>
+        <v>616</v>
       </c>
       <c r="B71" t="s">
-        <v>486</v>
+        <v>617</v>
       </c>
       <c r="C71" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>487</v>
+        <v>618</v>
       </c>
       <c r="B72" t="s">
-        <v>488</v>
+        <v>619</v>
       </c>
       <c r="C72" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
